--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\Teme_suplimentare\retele_conv_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5917F07E-54E8-45CC-89F2-DB85C9B60DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC1108-AC67-41E2-B5E6-016C43EA69B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1428" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{1239DCB4-235C-49AC-98C1-3E749A0F979A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1239DCB4-235C-49AC-98C1-3E749A0F979A}"/>
   </bookViews>
   <sheets>
     <sheet name="Small_dataset" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
   <si>
     <t>Size</t>
   </si>
@@ -90,12 +90,6 @@
   </si>
   <si>
     <t>Batch Normalization</t>
-  </si>
-  <si>
-    <t>64,64</t>
-  </si>
-  <si>
-    <t>3,3</t>
   </si>
   <si>
     <t>Adam</t>
@@ -141,6 +135,9 @@
   zoom_range: 0.2
   horizontal_flip: False
   brightness_range: [10, 10]</t>
+  </si>
+  <si>
+    <t>32, 32</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDFF6F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6FF7D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,13 +277,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,6 +300,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF6FF7D"/>
       <color rgb="FFDFF6F9"/>
     </mruColors>
   </colors>
@@ -605,47 +612,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C187EC14-0BD6-48CC-BCA5-A0036F0EEC28}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="Q2" sqref="A1:Q2"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="13" width="8.88671875" style="1"/>
     <col min="14" max="14" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="2" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3"/>
@@ -656,49 +663,49 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -708,37 +715,37 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <v>512</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1">
         <v>1E-3</v>
@@ -750,11 +757,295 @@
         <v>10</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>128</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>256</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>512</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>128</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>256</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1">
+        <v>512</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>128</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>256</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1">
+        <v>512</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>128</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>256</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1">
+        <v>512</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>128</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>256</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1">
+        <v>512</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -768,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCD027A-4AE1-4FA9-9B4C-4665132131C4}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -784,21 +1075,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
@@ -856,37 +1147,37 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1">
         <v>256</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <v>512</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1">
         <v>1E-3</v>
@@ -898,48 +1189,48 @@
         <v>10</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="8">
         <v>0.3367</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1">
         <v>256</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1">
         <v>512</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="1">
         <v>1E-3</v>
@@ -951,48 +1242,48 @@
         <v>10</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="8">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="9">
         <v>0.57640000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1">
         <v>256</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1">
         <v>512</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" s="1">
         <v>1E-3</v>
@@ -1004,48 +1295,48 @@
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="8">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="9">
         <v>0.69410000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>128</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>256</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1">
         <v>512</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L6" s="1">
         <v>1E-3</v>
@@ -1057,48 +1348,48 @@
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="8">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="9">
         <v>0.5323</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
         <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
         <v>256</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1">
         <v>512</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1">
         <v>1E-3</v>
@@ -1110,12 +1401,12 @@
         <v>10</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="8">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="9">
         <v>0.64849999999999997</v>
       </c>
     </row>
@@ -1127,57 +1418,57 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>128</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1">
         <v>256</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1">
         <v>512</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" s="1">
         <v>1E-3</v>
       </c>
       <c r="M8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -1196,7 +1487,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Desktop\AI\Teme_suplimentare\retele_conv_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC1108-AC67-41E2-B5E6-016C43EA69B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DC4295-2C7A-4303-899C-FBC2C9BBE62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1239DCB4-235C-49AC-98C1-3E749A0F979A}"/>
+    <workbookView xWindow="0" yWindow="2832" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{1239DCB4-235C-49AC-98C1-3E749A0F979A}"/>
   </bookViews>
   <sheets>
     <sheet name="Small_dataset" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="37">
   <si>
     <t>Size</t>
   </si>
@@ -138,6 +138,54 @@
   </si>
   <si>
     <t>32, 32</t>
+  </si>
+  <si>
+    <t>rescale: 1./255,  rotation_range: 40,
+width_shift_range: 0.2,  height_shift_range: 0.2,
+shear_range: 0.2,  zoom_range: 0.2,  horizontal_flip: True,
+  fill_mode: 'nearest'
+channel_shift_range: 0.5</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Data Augmentation 
++
+ Retea preantrenata
++
+Dropout
++
+Batch Normalization</t>
+  </si>
+  <si>
+    <t>Data Augmentation 
++
+ Retea preantrenata
++
+Dropout</t>
+  </si>
+  <si>
+    <t>Data Augmentation 
++
+ Retea preantrenata
++
+Dropout
++ 
+Batch Normalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rescale: 0.0039
+  rotation_range: 40
+  width_shift_range: 0.2
+  height_shift_range: 0.2
+  shear_range: 0.2
+  zoom_range: 0.2
+  horizontal_flip: False
+  brightness_range: [10, 10]
+  zca_epsilon: 1.00E-0.6
+  zca_whitening: True
+</t>
   </si>
 </sst>
 </file>
@@ -173,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -233,31 +281,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,12 +294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -614,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C187EC14-0BD6-48CC-BCA5-A0036F0EEC28}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="G10" zoomScale="66" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,31 +650,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="7" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3"/>
@@ -663,49 +685,49 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -762,9 +784,11 @@
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6">
+        <v>0.61109999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -807,13 +831,15 @@
       <c r="N4" s="1">
         <v>10</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="7">
+        <v>0.94440000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -864,7 +890,9 @@
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -915,7 +943,9 @@
       <c r="P6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="7">
+        <v>0.83330000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -960,17 +990,19 @@
       <c r="N7" s="1">
         <v>10</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="Q7" s="7">
+        <v>0.94440000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>32</v>
@@ -1011,41 +1043,227 @@
       <c r="N8" s="1">
         <v>10</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="10"/>
+      <c r="Q8" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>128</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>256</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1">
+        <v>512</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.88880000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>128</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>256</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1">
+        <v>512</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>15</v>
+      </c>
+      <c r="N10" s="1">
+        <v>30</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1">
+        <v>256</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1">
+        <v>512</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>15</v>
+      </c>
+      <c r="N11" s="1">
+        <v>30</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>128</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>256</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1">
+        <v>512</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1">
+        <v>30</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1059,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCD027A-4AE1-4FA9-9B4C-4665132131C4}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,28 +1286,29 @@
     <col min="1" max="14" width="8.88671875" style="1"/>
     <col min="15" max="15" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1194,7 +1413,7 @@
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>0.3367</v>
       </c>
     </row>
@@ -1241,13 +1460,13 @@
       <c r="N4" s="1">
         <v>10</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7">
         <v>0.57640000000000002</v>
       </c>
     </row>
@@ -1300,7 +1519,7 @@
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <v>0.69410000000000005</v>
       </c>
     </row>
@@ -1353,7 +1572,7 @@
       <c r="P6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="7">
         <v>0.5323</v>
       </c>
     </row>
@@ -1400,13 +1619,13 @@
       <c r="N7" s="1">
         <v>10</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="7">
         <v>0.64849999999999997</v>
       </c>
     </row>
@@ -1442,7 +1661,7 @@
         <v>512</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1">
         <v>1E-3</v>
@@ -1451,43 +1670,229 @@
         <v>5</v>
       </c>
       <c r="N8" s="1">
-        <v>5</v>
-      </c>
-      <c r="O8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="10"/>
+      <c r="Q8" s="7">
+        <v>0.51019999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>128</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>256</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1">
+        <v>512</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0.51759999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>128</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>256</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1">
+        <v>512</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.50580000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>128</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1">
+        <v>256</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1">
+        <v>512</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <v>15</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0.50439999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>128</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1">
+        <v>256</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1">
+        <v>512</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1">
+        <v>16</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.47489999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
